--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Serping1-Lrp1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Serping1-Lrp1.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>11.921572</v>
+        <v>7.649422333333334</v>
       </c>
       <c r="H2">
-        <v>35.764716</v>
+        <v>22.948267</v>
       </c>
       <c r="I2">
-        <v>0.006971694289596158</v>
+        <v>0.004484559810904267</v>
       </c>
       <c r="J2">
-        <v>0.006971694289596159</v>
+        <v>0.004484559810904268</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>21.08181366666667</v>
+        <v>3.456265333333333</v>
       </c>
       <c r="N2">
-        <v>63.245441</v>
+        <v>10.368796</v>
       </c>
       <c r="O2">
-        <v>0.0571606014598545</v>
+        <v>0.009841535807677501</v>
       </c>
       <c r="P2">
-        <v>0.0571606014598545</v>
+        <v>0.0098415358076775</v>
       </c>
       <c r="Q2">
-        <v>251.3283595177506</v>
+        <v>26.43843323072578</v>
       </c>
       <c r="R2">
-        <v>2261.955235659756</v>
+        <v>237.945899076532</v>
       </c>
       <c r="S2">
-        <v>0.0003985062387875494</v>
+        <v>4.413495596068579E-05</v>
       </c>
       <c r="T2">
-        <v>0.0003985062387875495</v>
+        <v>4.41349559606858E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>11.921572</v>
+        <v>7.649422333333334</v>
       </c>
       <c r="H3">
-        <v>35.764716</v>
+        <v>22.948267</v>
       </c>
       <c r="I3">
-        <v>0.006971694289596158</v>
+        <v>0.004484559810904267</v>
       </c>
       <c r="J3">
-        <v>0.006971694289596159</v>
+        <v>0.004484559810904268</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>904.800446</v>
       </c>
       <c r="O3">
-        <v>0.8177496571571792</v>
+        <v>0.8587907398420774</v>
       </c>
       <c r="P3">
-        <v>0.8177496571571792</v>
+        <v>0.8587907398420773</v>
       </c>
       <c r="Q3">
-        <v>3595.547887540371</v>
+        <v>2307.066912947454</v>
       </c>
       <c r="R3">
-        <v>32359.93098786334</v>
+        <v>20763.60221652708</v>
       </c>
       <c r="S3">
-        <v>0.005701100615121922</v>
+        <v>0.003851298437872522</v>
       </c>
       <c r="T3">
-        <v>0.005701100615121923</v>
+        <v>0.003851298437872523</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>11.921572</v>
+        <v>7.649422333333334</v>
       </c>
       <c r="H4">
-        <v>35.764716</v>
+        <v>22.948267</v>
       </c>
       <c r="I4">
-        <v>0.006971694289596158</v>
+        <v>0.004484559810904267</v>
       </c>
       <c r="J4">
-        <v>0.006971694289596159</v>
+        <v>0.004484559810904268</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,22 @@
         <v>138.405749</v>
       </c>
       <c r="O4">
-        <v>0.1250897413829664</v>
+        <v>0.1313677243502452</v>
       </c>
       <c r="P4">
-        <v>0.1250897413829664</v>
+        <v>0.1313677243502452</v>
       </c>
       <c r="Q4">
-        <v>550.0047006391427</v>
+        <v>352.9080091541093</v>
       </c>
       <c r="R4">
-        <v>4950.042305752285</v>
+        <v>3176.172082386984</v>
       </c>
       <c r="S4">
-        <v>0.0008720874356866868</v>
+        <v>0.0005891264170710595</v>
       </c>
       <c r="T4">
-        <v>0.0008720874356866869</v>
+        <v>0.0005891264170710595</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>4550.859374</v>
       </c>
       <c r="I5">
-        <v>0.8871089682487887</v>
+        <v>0.8893308176045429</v>
       </c>
       <c r="J5">
-        <v>0.8871089682487888</v>
+        <v>0.889330817604543</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>21.08181366666667</v>
+        <v>3.456265333333333</v>
       </c>
       <c r="N5">
-        <v>63.245441</v>
+        <v>10.368796</v>
       </c>
       <c r="O5">
-        <v>0.0571606014598545</v>
+        <v>0.009841535807677501</v>
       </c>
       <c r="P5">
-        <v>0.0571606014598545</v>
+        <v>0.0098415358076775</v>
       </c>
       <c r="Q5">
-        <v>31980.12311529043</v>
+        <v>5242.992497077077</v>
       </c>
       <c r="R5">
-        <v>287821.1080376139</v>
+        <v>47186.9324736937</v>
       </c>
       <c r="S5">
-        <v>0.05070768218553173</v>
+        <v>0.008752381086326219</v>
       </c>
       <c r="T5">
-        <v>0.05070768218553174</v>
+        <v>0.008752381086326217</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>4550.859374</v>
       </c>
       <c r="I6">
-        <v>0.8871089682487887</v>
+        <v>0.8893308176045429</v>
       </c>
       <c r="J6">
-        <v>0.8871089682487888</v>
+        <v>0.889330817604543</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>904.800446</v>
       </c>
       <c r="O6">
-        <v>0.8177496571571792</v>
+        <v>0.8587907398420774</v>
       </c>
       <c r="P6">
-        <v>0.8177496571571792</v>
+        <v>0.8587907398420773</v>
       </c>
       <c r="Q6">
         <v>457513.2879198312</v>
@@ -818,10 +818,10 @@
         <v>4117619.59127848</v>
       </c>
       <c r="S6">
-        <v>0.7254330546465059</v>
+        <v>0.763749070814965</v>
       </c>
       <c r="T6">
-        <v>0.725433054646506</v>
+        <v>0.763749070814965</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>4550.859374</v>
       </c>
       <c r="I7">
-        <v>0.8871089682487887</v>
+        <v>0.8893308176045429</v>
       </c>
       <c r="J7">
-        <v>0.8871089682487888</v>
+        <v>0.889330817604543</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,10 +868,10 @@
         <v>138.405749</v>
       </c>
       <c r="O7">
-        <v>0.1250897413829664</v>
+        <v>0.1313677243502452</v>
       </c>
       <c r="P7">
-        <v>0.1250897413829664</v>
+        <v>0.1313677243502452</v>
       </c>
       <c r="Q7">
         <v>69985.0111391268</v>
@@ -880,10 +880,10 @@
         <v>629865.1002521411</v>
       </c>
       <c r="S7">
-        <v>0.1109682314167511</v>
+        <v>0.1168293657032518</v>
       </c>
       <c r="T7">
-        <v>0.1109682314167511</v>
+        <v>0.1168293657032518</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,10 +912,10 @@
         <v>543.365051</v>
       </c>
       <c r="I8">
-        <v>0.1059193374616151</v>
+        <v>0.1061846225845528</v>
       </c>
       <c r="J8">
-        <v>0.1059193374616151</v>
+        <v>0.1061846225845528</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>21.08181366666667</v>
+        <v>3.456265333333333</v>
       </c>
       <c r="N8">
-        <v>63.245441</v>
+        <v>10.368796</v>
       </c>
       <c r="O8">
-        <v>0.0571606014598545</v>
+        <v>0.009841535807677501</v>
       </c>
       <c r="P8">
-        <v>0.0571606014598545</v>
+        <v>0.0098415358076775</v>
       </c>
       <c r="Q8">
-        <v>3818.373586053609</v>
+        <v>626.0045963720661</v>
       </c>
       <c r="R8">
-        <v>34365.36227448249</v>
+        <v>5634.041367348595</v>
       </c>
       <c r="S8">
-        <v>0.006054413035535218</v>
+        <v>0.001045019765390597</v>
       </c>
       <c r="T8">
-        <v>0.006054413035535219</v>
+        <v>0.001045019765390597</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,10 +974,10 @@
         <v>543.365051</v>
       </c>
       <c r="I9">
-        <v>0.1059193374616151</v>
+        <v>0.1061846225845528</v>
       </c>
       <c r="J9">
-        <v>0.1059193374616151</v>
+        <v>0.1061846225845528</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,10 +992,10 @@
         <v>904.800446</v>
       </c>
       <c r="O9">
-        <v>0.8177496571571792</v>
+        <v>0.8587907398420774</v>
       </c>
       <c r="P9">
-        <v>0.8177496571571792</v>
+        <v>0.8587907398420773</v>
       </c>
       <c r="Q9">
         <v>54626.32672062363</v>
@@ -1004,10 +1004,10 @@
         <v>491636.9404856127</v>
       </c>
       <c r="S9">
-        <v>0.08661550189555133</v>
+        <v>0.09119037058923986</v>
       </c>
       <c r="T9">
-        <v>0.08661550189555134</v>
+        <v>0.09119037058923986</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,10 +1036,10 @@
         <v>543.365051</v>
       </c>
       <c r="I10">
-        <v>0.1059193374616151</v>
+        <v>0.1061846225845528</v>
       </c>
       <c r="J10">
-        <v>0.1059193374616151</v>
+        <v>0.1061846225845528</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,10 +1054,10 @@
         <v>138.405749</v>
       </c>
       <c r="O10">
-        <v>0.1250897413829664</v>
+        <v>0.1313677243502452</v>
       </c>
       <c r="P10">
-        <v>0.1250897413829664</v>
+        <v>0.1313677243502452</v>
       </c>
       <c r="Q10">
         <v>8356.09409600869</v>
@@ -1066,10 +1066,10 @@
         <v>75204.84686407821</v>
       </c>
       <c r="S10">
-        <v>0.01324942253052857</v>
+        <v>0.01394923222992235</v>
       </c>
       <c r="T10">
-        <v>0.01324942253052858</v>
+        <v>0.01394923222992235</v>
       </c>
     </row>
   </sheetData>
